--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2864.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2864.xlsx
@@ -354,7 +354,7 @@
         <v>2.183961777085522</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.208425802641707</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2864.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2864.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.199687900061257</v>
+        <v>1.012349247932434</v>
       </c>
       <c r="B1">
-        <v>2.183961777085522</v>
+        <v>1.651827216148376</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.473353862762451</v>
       </c>
       <c r="D1">
-        <v>2.208425802641707</v>
+        <v>3.785707473754883</v>
       </c>
       <c r="E1">
-        <v>1.209483889043725</v>
+        <v>0.9584437012672424</v>
       </c>
     </row>
   </sheetData>
